--- a/data/trans_orig/PLURIPATOLOGIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156234D8-36DE-4D7A-8D24-DE7F67582985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79938F31-B14B-4378-9DE1-BDEB72227A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71BF38D4-C53D-4E9A-AE6F-2885EED8B127}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60B73560-0006-4551-AFDD-96F9451E7602}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="465">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -119,16 +119,19 @@
     <t>1,78%</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -140,16 +143,19 @@
     <t>98,22%</t>
   </si>
   <si>
-    <t>96,82%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -158,7 +164,10 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>2,0%</t>
@@ -167,634 +176,637 @@
     <t>1,13%</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
     <t>1,42%</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,3%</t>
+    <t>99,41%</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -803,22 +815,19 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>97,64%</t>
+    <t>97,68%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -827,157 +836,166 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>6,09%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>95,06%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>93,91%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>92,19%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>25,84%</t>
@@ -986,31 +1004,31 @@
     <t>22,47%</t>
   </si>
   <si>
-    <t>29,44%</t>
+    <t>29,21%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>87,17%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>70,56%</t>
+    <t>70,79%</t>
   </si>
   <si>
     <t>77,53%</t>
@@ -1019,58 +1037,64 @@
     <t>79,78%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>7,34%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>90,2%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>92,66%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1082,7 +1106,10 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -1091,193 +1118,178 @@
     <t>0,32%</t>
   </si>
   <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>86,28%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>15,21%</t>
@@ -1286,31 +1298,31 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>17,0%</t>
+    <t>17,08%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>80,75%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>83,0%</t>
+    <t>82,92%</t>
   </si>
   <si>
     <t>86,55%</t>
@@ -1319,109 +1331,109 @@
     <t>23,19%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>45,26%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B809F59D-9B66-4E7F-BC47-688207A08DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40471407-1C78-42D9-B962-9A339DD96D1E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2142,13 +2154,13 @@
         <v>12126</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,10 +2175,10 @@
         <v>734486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2178,13 +2190,13 @@
         <v>614371</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>1283</v>
@@ -2193,13 +2205,13 @@
         <v>1348856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2267,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2267,13 +2279,13 @@
         <v>5059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2282,13 +2294,13 @@
         <v>13789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2297,13 +2309,13 @@
         <v>18849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2330,13 @@
         <v>633609</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -2333,13 +2345,13 @@
         <v>675955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -2348,13 +2360,13 @@
         <v>1309563</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,7 +2422,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2422,13 +2434,13 @@
         <v>10974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2437,13 +2449,13 @@
         <v>26427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2452,13 +2464,13 @@
         <v>37401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2485,13 @@
         <v>508173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
@@ -2488,13 +2500,13 @@
         <v>489215</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>951</v>
@@ -2503,13 +2515,13 @@
         <v>997388</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,7 +2577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2577,13 +2589,13 @@
         <v>23723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -2592,13 +2604,13 @@
         <v>41503</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2607,13 +2619,13 @@
         <v>65226</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2640,13 @@
         <v>362987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -2643,13 +2655,13 @@
         <v>362483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>722</v>
@@ -2658,13 +2670,13 @@
         <v>725470</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,7 +2732,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2732,13 +2744,13 @@
         <v>71079</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -2747,13 +2759,13 @@
         <v>133706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -2762,13 +2774,13 @@
         <v>204785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2795,13 @@
         <v>431387</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>534</v>
@@ -2798,13 +2810,13 @@
         <v>543136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>981</v>
@@ -2813,13 +2825,13 @@
         <v>974523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2899,13 @@
         <v>111838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>218</v>
@@ -2902,13 +2914,13 @@
         <v>226549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -2917,13 +2929,13 @@
         <v>338386</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2950,13 @@
         <v>3164706</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>3079</v>
@@ -2953,28 +2965,28 @@
         <v>3152649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>6177</v>
       </c>
       <c r="N23" s="7">
-        <v>6317354</v>
+        <v>6317355</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,7 +3028,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3030,7 +3042,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3052,7 +3064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262DAF9B-E5EC-45E7-B307-7A98AEFC9BA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8F63A1-F6D6-4972-B390-DC723D9AE7F8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3069,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3176,13 +3188,13 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3191,13 +3203,13 @@
         <v>980</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3206,13 +3218,13 @@
         <v>1940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,10 +3239,10 @@
         <v>453186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3242,10 +3254,10 @@
         <v>429250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3257,10 +3269,10 @@
         <v>882436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3331,13 +3343,13 @@
         <v>1032</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3346,13 +3358,13 @@
         <v>7207</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3361,13 +3373,13 @@
         <v>8239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,10 +3394,10 @@
         <v>686055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3397,13 +3409,13 @@
         <v>603048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1231</v>
@@ -3412,13 +3424,13 @@
         <v>1289103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,7 +3486,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3486,13 +3498,13 @@
         <v>2851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3501,13 +3513,13 @@
         <v>22267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3516,13 +3528,13 @@
         <v>25117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3549,13 @@
         <v>679012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>646</v>
@@ -3552,13 +3564,13 @@
         <v>688583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3567,13 +3579,13 @@
         <v>1367595</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,7 +3641,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3641,13 +3653,13 @@
         <v>12746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3656,13 +3668,13 @@
         <v>40837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -3671,13 +3683,13 @@
         <v>53582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3704,13 @@
         <v>601871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>503</v>
@@ -3707,13 +3719,13 @@
         <v>575362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1040</v>
@@ -3722,13 +3734,13 @@
         <v>1177234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,7 +3796,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3796,13 +3808,13 @@
         <v>17874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -3811,13 +3823,13 @@
         <v>70156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -3826,13 +3838,13 @@
         <v>88029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3859,13 @@
         <v>411555</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>341</v>
@@ -3862,13 +3874,13 @@
         <v>377644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>717</v>
@@ -3877,13 +3889,13 @@
         <v>789200</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3951,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3951,13 +3963,13 @@
         <v>94390</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -3966,13 +3978,13 @@
         <v>209559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>279</v>
@@ -3981,13 +3993,13 @@
         <v>303950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4014,13 @@
         <v>465247</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>500</v>
@@ -4017,13 +4029,13 @@
         <v>533416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>919</v>
@@ -4032,13 +4044,13 @@
         <v>998662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4118,13 @@
         <v>129852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>323</v>
@@ -4121,13 +4133,13 @@
         <v>351006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>441</v>
@@ -4136,13 +4148,13 @@
         <v>480858</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4169,13 @@
         <v>3296927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>2975</v>
@@ -4172,13 +4184,13 @@
         <v>3207303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M23" s="7">
         <v>6066</v>
@@ -4187,13 +4199,13 @@
         <v>6504230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4261,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4271,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2360DC4E-7977-47A8-BF69-C5BC0E79746A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3447FA-3E69-47E7-83A5-EB30341E56F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4288,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4401,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4410,13 +4422,13 @@
         <v>959</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4425,13 +4437,13 @@
         <v>959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,7 +4461,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4461,10 +4473,10 @@
         <v>394796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4476,10 +4488,10 @@
         <v>814259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4556,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4565,13 +4577,13 @@
         <v>6019</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4580,13 +4592,13 @@
         <v>6019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,7 +4616,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4616,13 +4628,13 @@
         <v>557525</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>1140</v>
@@ -4631,13 +4643,13 @@
         <v>1148021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,7 +4705,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4705,13 +4717,13 @@
         <v>2462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4720,13 +4732,13 @@
         <v>15682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4735,13 +4747,13 @@
         <v>18144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,10 +4768,10 @@
         <v>666635</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4771,13 +4783,13 @@
         <v>645704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1284</v>
@@ -4786,13 +4798,13 @@
         <v>1312339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,7 +4860,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4860,13 +4872,13 @@
         <v>16318</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4875,13 +4887,13 @@
         <v>45118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4890,13 +4902,13 @@
         <v>61436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4923,13 @@
         <v>629730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -4926,28 +4938,28 @@
         <v>603959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1127</v>
       </c>
       <c r="N14" s="7">
-        <v>1233689</v>
+        <v>1233690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,7 +5001,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5003,7 +5015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5015,13 +5027,13 @@
         <v>24843</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5030,13 +5042,13 @@
         <v>78431</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -5045,13 +5057,13 @@
         <v>103274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5078,13 @@
         <v>453075</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -5081,13 +5093,13 @@
         <v>418418</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>768</v>
@@ -5096,13 +5108,13 @@
         <v>871493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,7 +5170,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5170,13 +5182,13 @@
         <v>75861</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>169</v>
@@ -5185,13 +5197,13 @@
         <v>200982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -5200,13 +5212,13 @@
         <v>276843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5233,13 @@
         <v>515467</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>486</v>
@@ -5236,13 +5248,13 @@
         <v>576949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>1030</v>
@@ -5251,13 +5263,13 @@
         <v>1092416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5337,13 @@
         <v>119484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
         <v>303</v>
@@ -5340,13 +5352,13 @@
         <v>347191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>424</v>
@@ -5355,13 +5367,13 @@
         <v>466675</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>72</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5388,13 @@
         <v>3274866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H23" s="7">
         <v>3035</v>
@@ -5391,13 +5403,13 @@
         <v>3197351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M23" s="7">
         <v>6145</v>
@@ -5406,13 +5418,13 @@
         <v>6472217</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,7 +5480,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5490,7 +5502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201E500C-952F-444A-8671-F9DC66B9BEA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28E3BBD-3B26-43AE-9371-796B79851991}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5507,7 +5519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5614,13 +5626,13 @@
         <v>160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5629,13 +5641,13 @@
         <v>7727</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>355</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5644,13 +5656,13 @@
         <v>7887</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,10 +5677,10 @@
         <v>377519</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -5680,13 +5692,13 @@
         <v>347230</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>375</v>
@@ -5695,13 +5707,13 @@
         <v>724749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5781,13 @@
         <v>2673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5784,13 +5796,13 @@
         <v>13637</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5799,13 +5811,13 @@
         <v>16310</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,10 +5832,10 @@
         <v>425723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5835,13 +5847,13 @@
         <v>485578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5850,13 +5862,13 @@
         <v>911301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>64</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,7 +5924,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5924,13 +5936,13 @@
         <v>18319</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5939,13 +5951,13 @@
         <v>28085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5954,13 +5966,13 @@
         <v>46404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5987,13 @@
         <v>538933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>807</v>
@@ -5990,13 +6002,13 @@
         <v>582362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>1337</v>
@@ -6005,13 +6017,13 @@
         <v>1121295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,7 +6079,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6079,13 +6091,13 @@
         <v>44233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -6094,13 +6106,13 @@
         <v>102544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>190</v>
@@ -6109,13 +6121,13 @@
         <v>146777</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6142,13 @@
         <v>679757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>995</v>
@@ -6145,28 +6157,28 @@
         <v>644717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>1616</v>
       </c>
       <c r="N14" s="7">
-        <v>1324475</v>
+        <v>1324474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6220,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6222,7 +6234,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6234,13 +6246,13 @@
         <v>67233</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
@@ -6249,13 +6261,13 @@
         <v>114909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>264</v>
@@ -6264,13 +6276,13 @@
         <v>182143</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6297,13 @@
         <v>532924</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>814</v>
@@ -6300,13 +6312,13 @@
         <v>482154</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>1401</v>
@@ -6315,13 +6327,13 @@
         <v>1015077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,7 +6389,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6386,16 +6398,16 @@
         <v>253</v>
       </c>
       <c r="D19" s="7">
-        <v>161802</v>
+        <v>161803</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>672</v>
@@ -6404,13 +6416,13 @@
         <v>464680</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>925</v>
@@ -6419,13 +6431,13 @@
         <v>626483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6452,13 @@
         <v>535952</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>1036</v>
@@ -6455,13 +6467,13 @@
         <v>561957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>1811</v>
@@ -6470,13 +6482,13 @@
         <v>1097909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6500,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6544,13 +6556,13 @@
         <v>294421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>1064</v>
@@ -6559,13 +6571,13 @@
         <v>731583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>1456</v>
@@ -6574,13 +6586,13 @@
         <v>1026004</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6607,13 @@
         <v>3090807</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>4303</v>
@@ -6610,28 +6622,28 @@
         <v>3103998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M23" s="7">
         <v>7287</v>
       </c>
       <c r="N23" s="7">
-        <v>6194805</v>
+        <v>6194804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,7 +6685,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6687,7 +6699,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/PLURIPATOLOGIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79938F31-B14B-4378-9DE1-BDEB72227A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8512FE38-688C-4D5C-9AF2-85F36488A148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60B73560-0006-4551-AFDD-96F9451E7602}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAD3B9C3-E74E-49D2-9A8F-2EF4B0805B58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -113,1111 +113,1111 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,68%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
   </si>
   <si>
     <t>6,11%</t>
@@ -1845,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40471407-1C78-42D9-B962-9A339DD96D1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB4C8B7-9961-499A-84BC-180D39EB4380}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2947,7 +2947,7 @@
         <v>3098</v>
       </c>
       <c r="D23" s="7">
-        <v>3164706</v>
+        <v>3164705</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>124</v>
@@ -2998,7 +2998,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -3064,7 +3064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8F63A1-F6D6-4972-B390-DC723D9AE7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F0DEC-8AEE-42CD-803F-1F4E9F27B0D0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3203,13 +3203,13 @@
         <v>980</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3218,13 +3218,13 @@
         <v>1940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,10 +3239,10 @@
         <v>453186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3254,10 +3254,10 @@
         <v>429250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3269,10 +3269,10 @@
         <v>882436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3343,13 +3343,13 @@
         <v>1032</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3358,13 +3358,13 @@
         <v>7207</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3373,13 +3373,13 @@
         <v>8239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,10 +3394,10 @@
         <v>686055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3409,13 +3409,13 @@
         <v>603048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>1231</v>
@@ -3424,13 +3424,13 @@
         <v>1289103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3498,13 @@
         <v>2851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3513,13 +3513,13 @@
         <v>22267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3528,13 +3528,13 @@
         <v>25117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3549,13 @@
         <v>679012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>646</v>
@@ -3564,13 +3564,13 @@
         <v>688583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3579,13 +3579,13 @@
         <v>1367595</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3653,13 @@
         <v>12746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3668,13 +3668,13 @@
         <v>40837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -3683,13 +3683,13 @@
         <v>53582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3704,13 @@
         <v>601871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>503</v>
@@ -4121,10 +4121,10 @@
         <v>231</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H22" s="7">
         <v>323</v>
@@ -4133,13 +4133,13 @@
         <v>351006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>441</v>
@@ -4148,13 +4148,13 @@
         <v>480858</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4169,13 @@
         <v>3296927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="H23" s="7">
         <v>2975</v>
@@ -4184,13 +4184,13 @@
         <v>3207303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M23" s="7">
         <v>6066</v>
@@ -4199,13 +4199,13 @@
         <v>6504230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3447FA-3E69-47E7-83A5-EB30341E56F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0181903F-1ADF-4E88-81AB-FA4993FE8E02}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4300,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4413,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4422,13 +4422,13 @@
         <v>959</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4437,13 +4437,13 @@
         <v>959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4461,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4473,10 +4473,10 @@
         <v>394796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4488,10 +4488,10 @@
         <v>814259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4568,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4577,13 +4577,13 @@
         <v>6019</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4592,13 +4592,13 @@
         <v>6019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,7 +4616,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4628,13 +4628,13 @@
         <v>557525</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1140</v>
@@ -4643,13 +4643,13 @@
         <v>1148021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4717,13 @@
         <v>2462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4732,13 +4732,13 @@
         <v>15682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4747,13 +4747,13 @@
         <v>18144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,10 +4801,10 @@
         <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4872,13 @@
         <v>16318</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4887,13 +4887,13 @@
         <v>45118</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4902,13 +4902,13 @@
         <v>61436</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4923,13 @@
         <v>629730</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -4938,28 +4938,28 @@
         <v>603959</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1127</v>
       </c>
       <c r="N14" s="7">
-        <v>1233690</v>
+        <v>1233689</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +5001,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5502,7 +5502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28E3BBD-3B26-43AE-9371-796B79851991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC48EE-F7CE-4961-BE95-3D25F8ED2F35}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5632,7 +5632,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5680,7 +5680,7 @@
         <v>360</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -5799,10 +5799,10 @@
         <v>368</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>370</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5811,13 +5811,13 @@
         <v>16310</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,7 +5835,7 @@
         <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5847,13 +5847,13 @@
         <v>485578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5862,13 +5862,13 @@
         <v>911301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5936,13 @@
         <v>18319</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5951,13 +5951,13 @@
         <v>28085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5966,10 +5966,10 @@
         <v>46404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>298</v>
@@ -5987,13 +5987,13 @@
         <v>538933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>807</v>
@@ -6002,13 +6002,13 @@
         <v>582362</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>1337</v>
@@ -6017,13 +6017,13 @@
         <v>1121295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/PLURIPATOLOGIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8512FE38-688C-4D5C-9AF2-85F36488A148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77ECE9C-4AD1-4B83-801F-4F745B0B507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAD3B9C3-E74E-49D2-9A8F-2EF4B0805B58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3DC0E97-7F25-477A-B63D-9B0FF16024A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="461">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -113,49 +113,43 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,69%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,32%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>96,82%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -164,1132 +158,1126 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
     <t>86,28%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>15,21%</t>
@@ -1298,31 +1286,31 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>17,08%</t>
+    <t>17,0%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>80,75%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>82,92%</t>
+    <t>83,0%</t>
   </si>
   <si>
     <t>86,55%</t>
@@ -1331,109 +1319,109 @@
     <t>23,19%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>45,26%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
   </si>
   <si>
     <t>63,67%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB4C8B7-9961-499A-84BC-180D39EB4380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EE2040-754C-4B25-9285-435A15A7E9F0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2154,13 +2142,13 @@
         <v>12126</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,10 +2163,10 @@
         <v>734486</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2190,13 +2178,13 @@
         <v>614371</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>1283</v>
@@ -2205,13 +2193,13 @@
         <v>1348856</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2255,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2279,13 +2267,13 @@
         <v>5059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2294,13 +2282,13 @@
         <v>13789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2309,13 +2297,13 @@
         <v>18849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2318,13 @@
         <v>633609</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -2345,13 +2333,13 @@
         <v>675955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>1252</v>
@@ -2360,13 +2348,13 @@
         <v>1309563</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2410,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2434,13 +2422,13 @@
         <v>10974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2449,13 +2437,13 @@
         <v>26427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2464,13 +2452,13 @@
         <v>37401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2473,13 @@
         <v>508173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>477</v>
@@ -2500,13 +2488,13 @@
         <v>489215</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>951</v>
@@ -2515,13 +2503,13 @@
         <v>997388</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2589,13 +2577,13 @@
         <v>23723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -2604,13 +2592,13 @@
         <v>41503</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2619,13 +2607,13 @@
         <v>65226</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2628,13 @@
         <v>362987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -2655,13 +2643,13 @@
         <v>362483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>722</v>
@@ -2670,13 +2658,13 @@
         <v>725470</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,7 +2720,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2744,13 +2732,13 @@
         <v>71079</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -2759,13 +2747,13 @@
         <v>133706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -2774,13 +2762,13 @@
         <v>204785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2783,13 @@
         <v>431387</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>534</v>
@@ -2810,13 +2798,13 @@
         <v>543136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>981</v>
@@ -2825,13 +2813,13 @@
         <v>974523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2887,13 @@
         <v>111838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>218</v>
@@ -2914,13 +2902,13 @@
         <v>226549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -2929,13 +2917,13 @@
         <v>338386</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,16 +2935,16 @@
         <v>3098</v>
       </c>
       <c r="D23" s="7">
-        <v>3164705</v>
+        <v>3164706</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>3079</v>
@@ -2965,28 +2953,28 @@
         <v>3152649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>6177</v>
       </c>
       <c r="N23" s="7">
-        <v>6317355</v>
+        <v>6317354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,7 +2986,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -3028,7 +3016,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3042,7 +3030,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F0DEC-8AEE-42CD-803F-1F4E9F27B0D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB7D2D6-C6FB-4E9B-A2DB-D023D5F7F13A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3081,7 +3069,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3188,13 +3176,13 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3203,13 +3191,13 @@
         <v>980</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3218,13 +3206,13 @@
         <v>1940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,10 +3227,10 @@
         <v>453186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -3254,10 +3242,10 @@
         <v>429250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3269,10 +3257,10 @@
         <v>882436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3343,13 +3331,13 @@
         <v>1032</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3358,13 +3346,13 @@
         <v>7207</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3373,13 +3361,13 @@
         <v>8239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,10 +3382,10 @@
         <v>686055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3409,13 +3397,13 @@
         <v>603048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>1231</v>
@@ -3424,13 +3412,13 @@
         <v>1289103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,7 +3474,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3498,13 +3486,13 @@
         <v>2851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3513,13 +3501,13 @@
         <v>22267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3528,13 +3516,13 @@
         <v>25117</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3537,13 @@
         <v>679012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>646</v>
@@ -3564,13 +3552,13 @@
         <v>688583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -3579,13 +3567,13 @@
         <v>1367595</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,7 +3629,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3653,13 +3641,13 @@
         <v>12746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3668,13 +3656,13 @@
         <v>40837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -3683,13 +3671,13 @@
         <v>53582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3692,13 @@
         <v>601871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>503</v>
@@ -3719,13 +3707,13 @@
         <v>575362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>1040</v>
@@ -3734,13 +3722,13 @@
         <v>1177234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3784,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3808,13 +3796,13 @@
         <v>17874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -3823,13 +3811,13 @@
         <v>70156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -3838,13 +3826,13 @@
         <v>88029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3847,13 @@
         <v>411555</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>341</v>
@@ -3874,13 +3862,13 @@
         <v>377644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>717</v>
@@ -3889,13 +3877,13 @@
         <v>789200</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,7 +3939,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3963,13 +3951,13 @@
         <v>94390</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -3978,13 +3966,13 @@
         <v>209559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>279</v>
@@ -3993,13 +3981,13 @@
         <v>303950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4002,13 @@
         <v>465247</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>500</v>
@@ -4029,13 +4017,13 @@
         <v>533416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>919</v>
@@ -4044,13 +4032,13 @@
         <v>998662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4106,13 @@
         <v>129852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>323</v>
@@ -4133,13 +4121,13 @@
         <v>351006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>441</v>
@@ -4148,13 +4136,13 @@
         <v>480858</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4157,13 @@
         <v>3296927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>2975</v>
@@ -4184,13 +4172,13 @@
         <v>3207303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
         <v>6066</v>
@@ -4199,13 +4187,13 @@
         <v>6504230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,7 +4249,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0181903F-1ADF-4E88-81AB-FA4993FE8E02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3641EB-596E-44C1-A8F4-CCB82B684D53}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4300,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4413,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4422,13 +4410,13 @@
         <v>959</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4437,13 +4425,13 @@
         <v>959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4449,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4473,10 +4461,10 @@
         <v>394796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4488,10 +4476,10 @@
         <v>814259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4568,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4577,13 +4565,13 @@
         <v>6019</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4592,13 +4580,13 @@
         <v>6019</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,7 +4604,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4628,13 +4616,13 @@
         <v>557525</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>1140</v>
@@ -4643,13 +4631,13 @@
         <v>1148021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4693,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4717,13 +4705,13 @@
         <v>2462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4732,13 +4720,13 @@
         <v>15682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4747,13 +4735,13 @@
         <v>18144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,10 +4756,10 @@
         <v>666635</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4783,13 +4771,13 @@
         <v>645704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1284</v>
@@ -4798,13 +4786,13 @@
         <v>1312339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,7 +4848,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4872,13 +4860,13 @@
         <v>16318</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4887,13 +4875,13 @@
         <v>45118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4902,13 +4890,13 @@
         <v>61436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4911,13 @@
         <v>629730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -4938,13 +4926,13 @@
         <v>603959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1127</v>
@@ -4953,13 +4941,13 @@
         <v>1233689</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,7 +5003,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5027,13 +5015,13 @@
         <v>24843</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5042,13 +5030,13 @@
         <v>78431</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -5057,13 +5045,13 @@
         <v>103274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5066,13 @@
         <v>453075</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -5093,13 +5081,13 @@
         <v>418418</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>768</v>
@@ -5108,13 +5096,13 @@
         <v>871493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,7 +5158,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5182,13 +5170,13 @@
         <v>75861</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>169</v>
@@ -5197,13 +5185,13 @@
         <v>200982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -5212,13 +5200,13 @@
         <v>276843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5221,13 @@
         <v>515467</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>486</v>
@@ -5248,13 +5236,13 @@
         <v>576949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>1030</v>
@@ -5263,13 +5251,13 @@
         <v>1092416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5325,13 @@
         <v>119484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>303</v>
@@ -5352,13 +5340,13 @@
         <v>347191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>424</v>
@@ -5367,13 +5355,13 @@
         <v>466675</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5376,13 @@
         <v>3274866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>3035</v>
@@ -5403,13 +5391,13 @@
         <v>3197351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M23" s="7">
         <v>6145</v>
@@ -5418,13 +5406,13 @@
         <v>6472217</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>351</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,7 +5468,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5502,7 +5490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC48EE-F7CE-4961-BE95-3D25F8ED2F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9864CC1E-7E4C-4064-B66E-B21B4F32B4B3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5519,7 +5507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5626,13 +5614,13 @@
         <v>160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5641,13 +5629,13 @@
         <v>7727</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>355</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5656,13 +5644,13 @@
         <v>7887</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,10 +5665,10 @@
         <v>377519</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -5692,13 +5680,13 @@
         <v>347230</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>375</v>
@@ -5707,13 +5695,13 @@
         <v>724749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5769,13 @@
         <v>2673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5796,13 +5784,13 @@
         <v>13637</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>361</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5811,13 +5799,13 @@
         <v>16310</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,10 +5820,10 @@
         <v>425723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5847,13 +5835,13 @@
         <v>485578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>367</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5862,13 +5850,13 @@
         <v>911301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,7 +5912,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5936,13 +5924,13 @@
         <v>18319</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5951,13 +5939,13 @@
         <v>28085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5966,13 +5954,13 @@
         <v>46404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5975,13 @@
         <v>538933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>807</v>
@@ -6002,13 +5990,13 @@
         <v>582362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>1337</v>
@@ -6017,13 +6005,13 @@
         <v>1121295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,7 +6067,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6091,13 +6079,13 @@
         <v>44233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -6106,13 +6094,13 @@
         <v>102544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>190</v>
@@ -6121,13 +6109,13 @@
         <v>146777</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6130,13 @@
         <v>679757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>995</v>
@@ -6157,28 +6145,28 @@
         <v>644717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1616</v>
       </c>
       <c r="N14" s="7">
-        <v>1324474</v>
+        <v>1324475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,7 +6208,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6234,7 +6222,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6246,13 +6234,13 @@
         <v>67233</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>188</v>
@@ -6261,13 +6249,13 @@
         <v>114909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>264</v>
@@ -6276,13 +6264,13 @@
         <v>182143</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6285,13 @@
         <v>532924</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>814</v>
@@ -6312,13 +6300,13 @@
         <v>482154</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>1401</v>
@@ -6327,13 +6315,13 @@
         <v>1015077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6377,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6398,16 +6386,16 @@
         <v>253</v>
       </c>
       <c r="D19" s="7">
-        <v>161803</v>
+        <v>161802</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>672</v>
@@ -6416,13 +6404,13 @@
         <v>464680</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>925</v>
@@ -6431,13 +6419,13 @@
         <v>626483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6440,13 @@
         <v>535952</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>1036</v>
@@ -6467,13 +6455,13 @@
         <v>561957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>1811</v>
@@ -6482,13 +6470,13 @@
         <v>1097909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6488,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6556,13 +6544,13 @@
         <v>294421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>1064</v>
@@ -6571,13 +6559,13 @@
         <v>731583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>1456</v>
@@ -6586,13 +6574,13 @@
         <v>1026004</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6595,13 @@
         <v>3090807</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>4303</v>
@@ -6622,28 +6610,28 @@
         <v>3103998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>7287</v>
       </c>
       <c r="N23" s="7">
-        <v>6194804</v>
+        <v>6194805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,7 +6673,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6699,7 +6687,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
